--- a/prelim/PPI Info (Portugal).xlsx
+++ b/prelim/PPI Info (Portugal).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t xml:space="preserve">iso2c</t>
   </si>
@@ -718,6 +718,9 @@
     <t xml:space="preserve">borders.border</t>
   </si>
   <si>
+    <t xml:space="preserve">Borders</t>
+  </si>
+  <si>
     <t xml:space="preserve">national</t>
   </si>
   <si>
@@ -89681,9 +89684,11 @@
       <c r="C2" t="s">
         <v>233</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -90110,9 +90115,11 @@
       <c r="C3" t="s">
         <v>233</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -90537,13 +90544,13 @@
         <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -90968,13 +90975,13 @@
         <v>232</v>
       </c>
       <c r="C5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" t="s">
         <v>236</v>
-      </c>
-      <c r="D5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" t="s">
-        <v>235</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -91399,13 +91406,13 @@
         <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -91830,13 +91837,13 @@
         <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -92261,13 +92268,13 @@
         <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -92692,13 +92699,13 @@
         <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -93123,13 +93130,13 @@
         <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -93554,13 +93561,13 @@
         <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -93985,13 +93992,13 @@
         <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -94416,13 +94423,13 @@
         <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -94847,13 +94854,13 @@
         <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -95278,13 +95285,13 @@
         <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -95709,13 +95716,13 @@
         <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -96140,13 +96147,13 @@
         <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -96571,13 +96578,13 @@
         <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -97002,13 +97009,13 @@
         <v>232</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -97433,13 +97440,13 @@
         <v>232</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -97864,13 +97871,13 @@
         <v>232</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -98295,13 +98302,13 @@
         <v>232</v>
       </c>
       <c r="C22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -98726,13 +98733,13 @@
         <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -99157,13 +99164,13 @@
         <v>232</v>
       </c>
       <c r="C24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F24" t="n">
         <v>0.75</v>
@@ -99588,13 +99595,13 @@
         <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -100019,13 +100026,13 @@
         <v>232</v>
       </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -100450,13 +100457,13 @@
         <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -100881,13 +100888,13 @@
         <v>232</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -101312,13 +101319,13 @@
         <v>232</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -101743,13 +101750,13 @@
         <v>232</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -102174,13 +102181,13 @@
         <v>232</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
